--- a/resultat.xlsx
+++ b/resultat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mekouar Ahmed</t>
+          <t xml:space="preserve"> Pharmacie du Coin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>05 22 25 28 69</t>
+          <t>05 22 58 31 25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Pharmacies</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sterimedical</t>
+          <t xml:space="preserve"> Pharmacie Résidence Enasser</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>05 22 89 71 89</t>
+          <t>05 20 28 61 10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Pharmacies</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,132 +502,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A.k.i.</t>
+          <t>A Ta Santé Distribution</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>05 37 68 05 10</t>
+          <t>05 22 30 83 85</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Pharmacies</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rabat</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Aalloula El Houssaine</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>05 37 57 17 61</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dentiste</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>rabat</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Banque Centrale Populaire (Bcp)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>05 22 20 25 33</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>banque</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>casablanca</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Afges Formation Banque Finance Maroc Privé</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pas de tel</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>banque</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>casablanca</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Afrah Arribat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>05 37 20 04 86</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>banque</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>rabat</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Afrah Arribat Himmi Frères( Afrah Arribat )</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pas de tel</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>banque</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>rabat</t>
         </is>
       </c>
     </row>
